--- a/cote.xlsx
+++ b/cote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\python-work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BDC0BD-EBF8-4BD4-93EF-0FFCDBDC9A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A560E85-5BF3-478F-AA32-CC4FD16F104D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
+    <workbookView xWindow="6960" yWindow="3495" windowWidth="19020" windowHeight="10920" xr2:uid="{8140579D-6B44-493B-BE20-36C75E9AAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Cost</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>PO</t>
+  </si>
+  <si>
+    <t>Fox Pointe</t>
+  </si>
+  <si>
+    <t>Keyton Farms</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9267CA-59CB-45E5-B346-87C338D47B3D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +423,7 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -430,52 +436,59 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14629</v>
+        <v>14742</v>
       </c>
       <c r="B2">
-        <v>200</v>
-      </c>
-      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>14664</v>
+        <v>14743</v>
       </c>
       <c r="B3">
-        <v>180</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>14636</v>
+        <v>14706</v>
       </c>
       <c r="B4">
-        <v>280</v>
-      </c>
-      <c r="D4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>14663</v>
+        <v>14728</v>
       </c>
       <c r="B5">
-        <v>340</v>
-      </c>
-      <c r="D5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>